--- a/Resouces/LPTC.xlsx
+++ b/Resouces/LPTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyData\VSProjects\SmapleServer\Resouces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA875AC-7C68-49BE-8B1D-9A1FB2230B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3506CCD-B032-4067-B5F1-511FC56DCD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="4365" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>C2S_StateChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>string talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2S_BuildRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C_RoomIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2S_StartLinkRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2S_EndLinkRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[] address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -380,7 +404,7 @@
     <col min="11" max="16384" width="19.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -391,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -400,6 +424,50 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Resouces/LPTC.xlsx
+++ b/Resouces/LPTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyData\VSProjects\SmapleServer\Resouces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3506CCD-B032-4067-B5F1-511FC56DCD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E17089-4DF0-441B-9842-58403DB590DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>C2S_StateChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>byte[] address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2S_LinkRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C_RoomState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C_Response_LinkRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2C_Talk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,6 +494,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
